--- a/data/industry/TrendForce/Li-Ion Battery.xlsx
+++ b/data/industry/TrendForce/Li-Ion Battery.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757DA40A-03E7-4754-BB7D-2F042F8664E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34221872-BC43-4A04-AEEB-99D524A1D86E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -336,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,6 +365,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -652,7 +656,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -751,15 +755,39 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="A3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="B3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7.84</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.48</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -778,6 +806,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -789,7 +818,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -900,18 +929,48 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="A3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="B3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10.31</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10.01</v>
+      </c>
+      <c r="H3" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="K3" s="3">
+        <v>18.47</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5.17</v>
+      </c>
+      <c r="M3" s="3">
+        <v>40.56</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5.07</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -938,7 +997,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1041,16 +1100,42 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="B3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.67</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5.2</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1170,13 +1255,33 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="B3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1208,7 +1313,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1295,12 +1400,30 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="B3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>15.31</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5.4</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1330,10 +1453,178 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="21" width="9" style="8"/>
+    <col min="22" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>46028</v>
+      </c>
+      <c r="B2" s="5">
+        <v>46028</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1415</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="H2" s="3">
+        <v>41.44</v>
+      </c>
+      <c r="I2" s="3">
+        <v>35.51</v>
+      </c>
+      <c r="J2" s="3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="K2" s="3">
+        <v>12.36</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="B3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1977</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15.25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>14.72</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45.09</v>
+      </c>
+      <c r="I3" s="3">
+        <v>36.79</v>
+      </c>
+      <c r="J3" s="3">
+        <v>9.48</v>
+      </c>
+      <c r="K3" s="3">
+        <v>14.69</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3.04</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9B3F37-91A5-425D-8E2F-CBD919F64D9B}">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1361,148 +1652,6 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>46028</v>
-      </c>
-      <c r="B2" s="5">
-        <v>46028</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1415</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="G2" s="3">
-        <v>9.18</v>
-      </c>
-      <c r="H2" s="3">
-        <v>41.44</v>
-      </c>
-      <c r="I2" s="3">
-        <v>35.51</v>
-      </c>
-      <c r="J2" s="3">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="K2" s="3">
-        <v>12.36</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9B3F37-91A5-425D-8E2F-CBD919F64D9B}">
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="21" width="9" style="8"/>
-    <col min="22" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1555,10 +1704,24 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="B3" s="5">
+        <v>46064</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.45</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
